--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621858.6497018914</v>
+        <v>620078.4010172122</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2608657.441902589</v>
+        <v>2608657.44190259</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>325.16745234556</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>207.6600074225184</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>72.63004609178796</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>92.85483486179584</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>360.6297460809445</v>
+        <v>360.6297460809444</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -958,13 +958,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>64.58216279976261</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1104,25 +1104,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>227.5559832441513</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>219.764143505546</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>334.3724561923418</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1293,22 +1293,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>138.3792129943162</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>228.8794355033995</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>396.4368775949458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>276.5406404993261</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>61.23615160042885</v>
       </c>
       <c r="T11" t="n">
-        <v>213.7211697444214</v>
+        <v>9.03657812491795</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5543216187114</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>78.36161099038341</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S13" t="n">
         <v>150.2461877512991</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>182.8921017186494</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>276.5406404993261</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>47.49087447353934</v>
       </c>
       <c r="T14" t="n">
-        <v>213.7211697444214</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5543216187114</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S16" t="n">
         <v>150.2461877512991</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>269.6314983738755</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>396.4368775949458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>250.3521029588968</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.7211697444214</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5543216187114</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S19" t="n">
         <v>150.2461877512991</v>
@@ -2083,10 +2083,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4368775949458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>326.4354941366938</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>24.76489467573102</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S22" t="n">
         <v>150.2461877512991</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S25" t="n">
         <v>150.2461877512991</v>
@@ -2608,7 +2608,7 @@
         <v>61.23615160042885</v>
       </c>
       <c r="T26" t="n">
-        <v>213.7211697444218</v>
+        <v>213.7211697444214</v>
       </c>
       <c r="U26" t="n">
         <v>256.5543216187114</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S28" t="n">
         <v>150.2461877512991</v>
@@ -2845,7 +2845,7 @@
         <v>61.23615160042885</v>
       </c>
       <c r="T29" t="n">
-        <v>213.7211697444214</v>
+        <v>213.7211697444218</v>
       </c>
       <c r="U29" t="n">
         <v>256.5543216187114</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S31" t="n">
         <v>150.2461877512991</v>
@@ -3088,7 +3088,7 @@
         <v>256.5543216187114</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S34" t="n">
         <v>150.2461877512991</v>
@@ -3268,13 +3268,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>22.90317053690256</v>
       </c>
       <c r="E35" t="n">
-        <v>70.34327718904213</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3328,10 +3328,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S37" t="n">
         <v>150.2461877512991</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>432.6958808834971</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>396.4368775949458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>276.5406404993261</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.7211697444214</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V38" t="n">
-        <v>303.438031938072</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S40" t="n">
         <v>150.2461877512991</v>
@@ -3742,22 +3742,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>9.107125588612844</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>277.8383347529597</v>
+        <v>396.4368775949458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>276.5406404993261</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.7211697444214</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S43" t="n">
         <v>150.2461877512991</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>427.1064330002458</v>
+        <v>93.95508101143416</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3994,7 +3994,7 @@
         <v>396.4368775949458</v>
       </c>
       <c r="H44" t="n">
-        <v>276.5406404993261</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T44" t="n">
         <v>213.7211697444214</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5543216187114</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S46" t="n">
         <v>150.2461877512991</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>557.5168885550254</v>
       </c>
       <c r="C2" t="n">
-        <v>1620.659365270951</v>
+        <v>523.4148197788528</v>
       </c>
       <c r="D2" t="n">
-        <v>1292.207393204728</v>
+        <v>491.5454389937014</v>
       </c>
       <c r="E2" t="n">
-        <v>863.6257189419966</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>789.5336382545983</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>579.7760549995292</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4415,19 +4415,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339.4371178854062</v>
+        <v>445.7470558378587</v>
       </c>
       <c r="C4" t="n">
-        <v>339.4371178854062</v>
+        <v>273.1853443210836</v>
       </c>
       <c r="D4" t="n">
-        <v>339.4371178854062</v>
+        <v>107.3073515226063</v>
       </c>
       <c r="E4" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4494,16 +4494,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>688.8848573262783</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="X4" t="n">
-        <v>339.4371178854062</v>
+        <v>864.9853452427376</v>
       </c>
       <c r="Y4" t="n">
-        <v>339.4371178854062</v>
+        <v>637.5656745568458</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>484.0636759001416</v>
+        <v>484.0636759001414</v>
       </c>
       <c r="C5" t="n">
         <v>119.7912051113087</v>
@@ -4573,19 +4573,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O5" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="M5" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q5" t="n">
         <v>1528.02936532736</v>
@@ -4606,13 +4606,13 @@
         <v>1334.566480014244</v>
       </c>
       <c r="W5" t="n">
-        <v>1333.751429465681</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X5" t="n">
-        <v>1318.649370085396</v>
+        <v>914.6089660449918</v>
       </c>
       <c r="Y5" t="n">
-        <v>910.3632463850494</v>
+        <v>910.3632463850493</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4649,22 +4649,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.8381257054811</v>
+        <v>973.0996549038641</v>
       </c>
       <c r="C7" t="n">
-        <v>187.8381257054811</v>
+        <v>800.5379433870891</v>
       </c>
       <c r="D7" t="n">
-        <v>187.8381257054811</v>
+        <v>634.6599505886118</v>
       </c>
       <c r="E7" t="n">
-        <v>187.8381257054811</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F7" t="n">
-        <v>187.8381257054811</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G7" t="n">
-        <v>187.8381257054811</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H7" t="n">
         <v>122.603617826933</v>
@@ -4725,25 +4725,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
@@ -4752,25 +4752,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1445.911080256343</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1445.911080256343</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1200.519325589756</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.8381257054811</v>
+        <v>973.0996549038641</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.461663861405</v>
+        <v>945.0851728516207</v>
       </c>
       <c r="C8" t="n">
-        <v>1214.359595085233</v>
+        <v>516.503498588889</v>
       </c>
       <c r="D8" t="n">
-        <v>1182.490214300081</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.75587349878</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F8" t="n">
-        <v>724.8884439079882</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
         <v>34.36045797446834</v>
@@ -4804,25 +4804,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K8" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
         <v>874.0494664914149</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4837,19 +4837,19 @@
         <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>1391.547572925319</v>
       </c>
       <c r="V8" t="n">
-        <v>1613.531556264254</v>
+        <v>1391.547572925319</v>
       </c>
       <c r="W8" t="n">
-        <v>1612.716505715692</v>
+        <v>1390.732522376756</v>
       </c>
       <c r="X8" t="n">
-        <v>1274.966549965852</v>
+        <v>1375.630462996471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1270.720830305909</v>
+        <v>1371.384743336529</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>847.6348259499213</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>675.0731144331462</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
         <v>33.94366860160834</v>
@@ -4962,25 +4962,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4989,25 +4989,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1535.988625963248</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U10" t="n">
-        <v>1257.555625216353</v>
+        <v>1039.453444668908</v>
       </c>
       <c r="V10" t="n">
-        <v>970.6001170867833</v>
+        <v>1039.453444668908</v>
       </c>
       <c r="W10" t="n">
-        <v>698.5737126730747</v>
+        <v>1039.453444668908</v>
       </c>
       <c r="X10" t="n">
-        <v>453.1819580064872</v>
+        <v>1039.453444668908</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.7622873205955</v>
+        <v>1039.453444668908</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1173.996294158418</v>
+        <v>930.130808181678</v>
       </c>
       <c r="C11" t="n">
-        <v>1173.996294158418</v>
+        <v>930.130808181678</v>
       </c>
       <c r="D11" t="n">
-        <v>1173.996294158418</v>
+        <v>494.2210233561226</v>
       </c>
       <c r="E11" t="n">
-        <v>740.2215493167128</v>
+        <v>60.4462785144178</v>
       </c>
       <c r="F11" t="n">
-        <v>740.2215493167128</v>
+        <v>60.4462785144178</v>
       </c>
       <c r="G11" t="n">
-        <v>339.7802588167674</v>
+        <v>60.4462785144178</v>
       </c>
       <c r="H11" t="n">
         <v>60.4462785144178</v>
@@ -5044,16 +5044,16 @@
         <v>611.0052852544601</v>
       </c>
       <c r="K11" t="n">
-        <v>783.8485004226615</v>
+        <v>1359.02798187038</v>
       </c>
       <c r="L11" t="n">
-        <v>931.7939332809896</v>
+        <v>1521.857464137939</v>
       </c>
       <c r="M11" t="n">
-        <v>1096.411733368976</v>
+        <v>1686.475264225926</v>
       </c>
       <c r="N11" t="n">
-        <v>1263.693221564997</v>
+        <v>1853.756752421947</v>
       </c>
       <c r="O11" t="n">
         <v>2011.715918180917</v>
@@ -5071,22 +5071,22 @@
         <v>2960.459227134598</v>
       </c>
       <c r="T11" t="n">
-        <v>2744.579257695789</v>
+        <v>2951.331370442762</v>
       </c>
       <c r="U11" t="n">
-        <v>2485.433478282949</v>
+        <v>2951.331370442762</v>
       </c>
       <c r="V11" t="n">
-        <v>2406.28033586842</v>
+        <v>2588.714420376588</v>
       </c>
       <c r="W11" t="n">
-        <v>2001.424881279454</v>
+        <v>2183.858965787622</v>
       </c>
       <c r="X11" t="n">
-        <v>1582.282417858764</v>
+        <v>1764.716502366933</v>
       </c>
       <c r="Y11" t="n">
-        <v>1173.996294158418</v>
+        <v>1356.430378666586</v>
       </c>
     </row>
     <row r="12">
@@ -5129,10 +5129,10 @@
         <v>665.6418394122758</v>
       </c>
       <c r="M12" t="n">
-        <v>792.7383170880039</v>
+        <v>792.7383170880038</v>
       </c>
       <c r="N12" t="n">
-        <v>923.198660340436</v>
+        <v>923.1986603404358</v>
       </c>
       <c r="O12" t="n">
         <v>1042.544386919547</v>
@@ -5178,10 +5178,10 @@
         <v>1122.357189429985</v>
       </c>
       <c r="C13" t="n">
-        <v>949.7954779132098</v>
+        <v>949.7954779132101</v>
       </c>
       <c r="D13" t="n">
-        <v>783.9174851147325</v>
+        <v>783.9174851147327</v>
       </c>
       <c r="E13" t="n">
         <v>614.1594813654697</v>
@@ -5193,7 +5193,7 @@
         <v>272.2902236602858</v>
       </c>
       <c r="H13" t="n">
-        <v>136.2028833367831</v>
+        <v>136.2028833367836</v>
       </c>
       <c r="I13" t="n">
         <v>60.4462785144178</v>
@@ -5202,22 +5202,22 @@
         <v>176.7576318061685</v>
       </c>
       <c r="K13" t="n">
-        <v>428.6814734826806</v>
+        <v>500.3743503176201</v>
       </c>
       <c r="L13" t="n">
-        <v>909.4131117827174</v>
+        <v>981.1059886176569</v>
       </c>
       <c r="M13" t="n">
-        <v>1434.817405029582</v>
+        <v>1506.510281864522</v>
       </c>
       <c r="N13" t="n">
-        <v>1941.429193860728</v>
+        <v>2013.122070695668</v>
       </c>
       <c r="O13" t="n">
-        <v>2420.538841188546</v>
+        <v>2492.231718023486</v>
       </c>
       <c r="P13" t="n">
-        <v>2818.907264381264</v>
+        <v>2890.600141216204</v>
       </c>
       <c r="Q13" t="n">
         <v>3022.31392572089</v>
@@ -5238,7 +5238,7 @@
         <v>2059.01363791516</v>
       </c>
       <c r="W13" t="n">
-        <v>1786.987233501451</v>
+        <v>1786.987233501452</v>
       </c>
       <c r="X13" t="n">
         <v>1541.595478834864</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>952.3871850930642</v>
+        <v>1357.99823777247</v>
       </c>
       <c r="C14" t="n">
-        <v>952.3871850930642</v>
+        <v>1357.99823777247</v>
       </c>
       <c r="D14" t="n">
-        <v>952.3871850930642</v>
+        <v>922.0884529469149</v>
       </c>
       <c r="E14" t="n">
-        <v>952.3871850930642</v>
+        <v>488.31370810521</v>
       </c>
       <c r="F14" t="n">
-        <v>524.5197555022719</v>
+        <v>60.4462785144178</v>
       </c>
       <c r="G14" t="n">
-        <v>339.7802588167674</v>
+        <v>60.4462785144178</v>
       </c>
       <c r="H14" t="n">
         <v>60.4462785144178</v>
@@ -5281,22 +5281,22 @@
         <v>611.0052852544601</v>
       </c>
       <c r="K14" t="n">
-        <v>756.2647122903736</v>
+        <v>730.2595276380766</v>
       </c>
       <c r="L14" t="n">
-        <v>904.2101451487017</v>
+        <v>878.2049604964046</v>
       </c>
       <c r="M14" t="n">
-        <v>1652.232841764622</v>
+        <v>1042.822760584391</v>
       </c>
       <c r="N14" t="n">
-        <v>2400.255538380542</v>
+        <v>1210.104248780412</v>
       </c>
       <c r="O14" t="n">
-        <v>2558.214704139512</v>
+        <v>1398.507715025819</v>
       </c>
       <c r="P14" t="n">
-        <v>2693.029197600334</v>
+        <v>2146.530411641739</v>
       </c>
       <c r="Q14" t="n">
         <v>2794.26926770207</v>
@@ -5305,25 +5305,25 @@
         <v>3022.31392572089</v>
       </c>
       <c r="S14" t="n">
-        <v>3022.31392572089</v>
+        <v>2974.343345444588</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.433956282081</v>
+        <v>2974.343345444588</v>
       </c>
       <c r="U14" t="n">
-        <v>2547.28817686924</v>
+        <v>2974.343345444588</v>
       </c>
       <c r="V14" t="n">
-        <v>2184.671226803067</v>
+        <v>2611.726395378414</v>
       </c>
       <c r="W14" t="n">
-        <v>1779.8157722141</v>
+        <v>2611.726395378414</v>
       </c>
       <c r="X14" t="n">
-        <v>1360.673308793411</v>
+        <v>2192.583931957725</v>
       </c>
       <c r="Y14" t="n">
-        <v>952.3871850930642</v>
+        <v>1784.297808257378</v>
       </c>
     </row>
     <row r="15">
@@ -5415,19 +5415,19 @@
         <v>1122.357189429985</v>
       </c>
       <c r="C16" t="n">
-        <v>949.79547791321</v>
+        <v>949.7954779132101</v>
       </c>
       <c r="D16" t="n">
         <v>783.9174851147327</v>
       </c>
       <c r="E16" t="n">
-        <v>614.1594813654699</v>
+        <v>614.1594813654697</v>
       </c>
       <c r="F16" t="n">
-        <v>437.4524273272261</v>
+        <v>437.4524273272259</v>
       </c>
       <c r="G16" t="n">
-        <v>272.2902236602864</v>
+        <v>272.2902236602858</v>
       </c>
       <c r="H16" t="n">
         <v>136.2028833367836</v>
@@ -5445,10 +5445,10 @@
         <v>981.1059886176569</v>
       </c>
       <c r="M16" t="n">
-        <v>1506.510281864522</v>
+        <v>1434.817405029582</v>
       </c>
       <c r="N16" t="n">
-        <v>2013.122070695668</v>
+        <v>1941.429193860728</v>
       </c>
       <c r="O16" t="n">
         <v>2420.538841188546</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1161.110047467656</v>
+        <v>1149.678265919612</v>
       </c>
       <c r="C17" t="n">
-        <v>1161.110047467656</v>
+        <v>1149.678265919612</v>
       </c>
       <c r="D17" t="n">
-        <v>1161.110047467656</v>
+        <v>713.7684810940568</v>
       </c>
       <c r="E17" t="n">
-        <v>888.7549986051554</v>
+        <v>713.7684810940568</v>
       </c>
       <c r="F17" t="n">
-        <v>460.8875690143631</v>
+        <v>713.7684810940568</v>
       </c>
       <c r="G17" t="n">
-        <v>60.4462785144178</v>
+        <v>313.3271905941115</v>
       </c>
       <c r="H17" t="n">
         <v>60.4462785144178</v>
@@ -5515,25 +5515,25 @@
         <v>96.18097226372217</v>
       </c>
       <c r="J17" t="n">
-        <v>175.7505978015421</v>
+        <v>611.0052852544601</v>
       </c>
       <c r="K17" t="n">
-        <v>295.0048401851586</v>
+        <v>730.2595276380766</v>
       </c>
       <c r="L17" t="n">
-        <v>442.9502730434867</v>
+        <v>878.2049604964046</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.972969659407</v>
+        <v>1042.822760584391</v>
       </c>
       <c r="N17" t="n">
-        <v>1938.995666275327</v>
+        <v>1210.104248780412</v>
       </c>
       <c r="O17" t="n">
-        <v>2096.954832034297</v>
+        <v>1398.507715025819</v>
       </c>
       <c r="P17" t="n">
-        <v>2231.769325495119</v>
+        <v>2146.530411641739</v>
       </c>
       <c r="Q17" t="n">
         <v>2794.26926770207</v>
@@ -5542,25 +5542,25 @@
         <v>3022.31392572089</v>
       </c>
       <c r="S17" t="n">
-        <v>3022.31392572089</v>
+        <v>2960.459227134598</v>
       </c>
       <c r="T17" t="n">
-        <v>3022.31392572089</v>
+        <v>2744.579257695789</v>
       </c>
       <c r="U17" t="n">
-        <v>2763.16814630805</v>
+        <v>2744.579257695789</v>
       </c>
       <c r="V17" t="n">
-        <v>2400.551196241877</v>
+        <v>2381.962307629615</v>
       </c>
       <c r="W17" t="n">
-        <v>1995.69574165291</v>
+        <v>1977.106853040649</v>
       </c>
       <c r="X17" t="n">
-        <v>1995.69574165291</v>
+        <v>1557.964389619959</v>
       </c>
       <c r="Y17" t="n">
-        <v>1587.409617952564</v>
+        <v>1149.678265919612</v>
       </c>
     </row>
     <row r="18">
@@ -5603,10 +5603,10 @@
         <v>665.6418394122758</v>
       </c>
       <c r="M18" t="n">
-        <v>792.7383170880039</v>
+        <v>792.7383170880038</v>
       </c>
       <c r="N18" t="n">
-        <v>923.198660340436</v>
+        <v>923.1986603404358</v>
       </c>
       <c r="O18" t="n">
         <v>1042.544386919547</v>
@@ -5673,7 +5673,7 @@
         <v>60.4462785144178</v>
       </c>
       <c r="J19" t="n">
-        <v>105.064754971229</v>
+        <v>176.7576318061685</v>
       </c>
       <c r="K19" t="n">
         <v>428.6814734826806</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1322.52974344686</v>
+        <v>1796.140710589047</v>
       </c>
       <c r="C20" t="n">
-        <v>1322.52974344686</v>
+        <v>1357.99823777247</v>
       </c>
       <c r="D20" t="n">
-        <v>1322.52974344686</v>
+        <v>922.0884529469149</v>
       </c>
       <c r="E20" t="n">
-        <v>888.7549986051554</v>
+        <v>488.31370810521</v>
       </c>
       <c r="F20" t="n">
-        <v>460.8875690143631</v>
+        <v>60.4462785144178</v>
       </c>
       <c r="G20" t="n">
         <v>60.4462785144178</v>
@@ -5752,28 +5752,28 @@
         <v>96.18097226372217</v>
       </c>
       <c r="J20" t="n">
-        <v>611.0052852544601</v>
+        <v>181.8351962616495</v>
       </c>
       <c r="K20" t="n">
-        <v>746.9423898533222</v>
+        <v>929.8578928775697</v>
       </c>
       <c r="L20" t="n">
-        <v>894.8878227116504</v>
+        <v>1077.803325735898</v>
       </c>
       <c r="M20" t="n">
-        <v>1642.910519327571</v>
+        <v>1242.421125823884</v>
       </c>
       <c r="N20" t="n">
-        <v>1810.192007523592</v>
+        <v>1409.702614019905</v>
       </c>
       <c r="O20" t="n">
-        <v>2558.214704139512</v>
+        <v>1567.661779778875</v>
       </c>
       <c r="P20" t="n">
-        <v>2693.029197600334</v>
+        <v>2315.684476394796</v>
       </c>
       <c r="Q20" t="n">
-        <v>2794.26926770207</v>
+        <v>2963.423332455126</v>
       </c>
       <c r="R20" t="n">
         <v>3022.31392572089</v>
@@ -5788,16 +5788,16 @@
         <v>2960.459227134598</v>
       </c>
       <c r="V20" t="n">
-        <v>2597.842277068425</v>
+        <v>2960.459227134598</v>
       </c>
       <c r="W20" t="n">
-        <v>2192.986822479458</v>
+        <v>2630.726404774301</v>
       </c>
       <c r="X20" t="n">
-        <v>1773.844359058769</v>
+        <v>2630.726404774301</v>
       </c>
       <c r="Y20" t="n">
-        <v>1748.829313931768</v>
+        <v>2222.440281073955</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>556.7287162110134</v>
       </c>
       <c r="L21" t="n">
-        <v>1021.593820159762</v>
+        <v>665.6418394122758</v>
       </c>
       <c r="M21" t="n">
-        <v>1148.69029783549</v>
+        <v>792.7383170880038</v>
       </c>
       <c r="N21" t="n">
-        <v>1279.150641087922</v>
+        <v>923.1986603404358</v>
       </c>
       <c r="O21" t="n">
-        <v>1398.496367667033</v>
+        <v>1042.544386919547</v>
       </c>
       <c r="P21" t="n">
-        <v>1494.281834951884</v>
+        <v>1138.329854204398</v>
       </c>
       <c r="Q21" t="n">
         <v>1558.311883182357</v>
@@ -5910,16 +5910,16 @@
         <v>60.4462785144178</v>
       </c>
       <c r="J22" t="n">
-        <v>105.0647549712294</v>
+        <v>176.7576318061685</v>
       </c>
       <c r="K22" t="n">
-        <v>428.681473482681</v>
+        <v>500.3743503176201</v>
       </c>
       <c r="L22" t="n">
-        <v>909.4131117827178</v>
+        <v>981.1059886176569</v>
       </c>
       <c r="M22" t="n">
-        <v>1434.817405029583</v>
+        <v>1434.817405029582</v>
       </c>
       <c r="N22" t="n">
         <v>1941.429193860728</v>
@@ -5995,10 +5995,10 @@
         <v>1605.664576032366</v>
       </c>
       <c r="L23" t="n">
-        <v>1753.610008890694</v>
+        <v>1766.105744539826</v>
       </c>
       <c r="M23" t="n">
-        <v>1918.227808978681</v>
+        <v>1930.723544627813</v>
       </c>
       <c r="N23" t="n">
         <v>2098.005032823834</v>
@@ -6007,7 +6007,7 @@
         <v>3236.14386515311</v>
       </c>
       <c r="P23" t="n">
-        <v>4199.268233447327</v>
+        <v>4199.268233447328</v>
       </c>
       <c r="Q23" t="n">
         <v>4847.00708950766</v>
@@ -6016,7 +6016,7 @@
         <v>5075.05174752648</v>
       </c>
       <c r="S23" t="n">
-        <v>5013.197048940188</v>
+        <v>5013.197048940187</v>
       </c>
       <c r="T23" t="n">
         <v>4797.317079501378</v>
@@ -6147,25 +6147,25 @@
         <v>101.5010349505296</v>
       </c>
       <c r="J25" t="n">
-        <v>146.1195114073409</v>
+        <v>217.8123882422803</v>
       </c>
       <c r="K25" t="n">
-        <v>469.7362299187925</v>
+        <v>541.4291067537318</v>
       </c>
       <c r="L25" t="n">
-        <v>950.4678682188293</v>
+        <v>1022.160745053769</v>
       </c>
       <c r="M25" t="n">
-        <v>1475.872161465694</v>
+        <v>1547.565038300634</v>
       </c>
       <c r="N25" t="n">
-        <v>1982.48395029684</v>
+        <v>2054.17682713178</v>
       </c>
       <c r="O25" t="n">
-        <v>2461.593597624658</v>
+        <v>2533.286474459598</v>
       </c>
       <c r="P25" t="n">
-        <v>2859.962020817376</v>
+        <v>2931.654897652316</v>
       </c>
       <c r="Q25" t="n">
         <v>3063.368682157002</v>
@@ -6232,13 +6232,13 @@
         <v>1605.664576032366</v>
       </c>
       <c r="L26" t="n">
-        <v>1753.610008890694</v>
+        <v>2746.285411110133</v>
       </c>
       <c r="M26" t="n">
-        <v>1918.227808978681</v>
+        <v>2910.903211198119</v>
       </c>
       <c r="N26" t="n">
-        <v>2098.005032823834</v>
+        <v>3078.18469939414</v>
       </c>
       <c r="O26" t="n">
         <v>3236.14386515311</v>
@@ -6305,25 +6305,25 @@
         <v>144.8350447866747</v>
       </c>
       <c r="J27" t="n">
-        <v>192.2261686504943</v>
+        <v>516.7844936167066</v>
       </c>
       <c r="K27" t="n">
-        <v>412.996514762536</v>
+        <v>597.7834726471252</v>
       </c>
       <c r="L27" t="n">
-        <v>521.9096379637983</v>
+        <v>706.6965958483876</v>
       </c>
       <c r="M27" t="n">
-        <v>649.0061156395265</v>
+        <v>833.7930735241156</v>
       </c>
       <c r="N27" t="n">
-        <v>779.4664588919586</v>
+        <v>964.2534167765477</v>
       </c>
       <c r="O27" t="n">
-        <v>898.8121854710693</v>
+        <v>1083.599143355658</v>
       </c>
       <c r="P27" t="n">
-        <v>994.5976527559205</v>
+        <v>1179.38461064051</v>
       </c>
       <c r="Q27" t="n">
         <v>1599.366639618469</v>
@@ -6384,13 +6384,13 @@
         <v>101.5010349505296</v>
       </c>
       <c r="J28" t="n">
-        <v>146.1195114073409</v>
+        <v>217.8123882422803</v>
       </c>
       <c r="K28" t="n">
-        <v>469.7362299187925</v>
+        <v>541.4291067537318</v>
       </c>
       <c r="L28" t="n">
-        <v>950.4678682188293</v>
+        <v>1022.160745053769</v>
       </c>
       <c r="M28" t="n">
         <v>1475.872161465694</v>
@@ -6469,16 +6469,16 @@
         <v>1605.664576032366</v>
       </c>
       <c r="L29" t="n">
-        <v>1753.610008890694</v>
+        <v>2828.669975143554</v>
       </c>
       <c r="M29" t="n">
-        <v>1918.227808978681</v>
+        <v>2993.28777523154</v>
       </c>
       <c r="N29" t="n">
-        <v>2098.005032823834</v>
+        <v>3160.569263427562</v>
       </c>
       <c r="O29" t="n">
-        <v>3236.14386515311</v>
+        <v>3318.528429186531</v>
       </c>
       <c r="P29" t="n">
         <v>4199.268233447328</v>
@@ -6490,7 +6490,7 @@
         <v>5075.05174752648</v>
       </c>
       <c r="S29" t="n">
-        <v>5013.197048940188</v>
+        <v>5013.197048940187</v>
       </c>
       <c r="T29" t="n">
         <v>4797.317079501378</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3929.586650834179</v>
+        <v>602.218128151849</v>
       </c>
       <c r="C30" t="n">
-        <v>3823.130189670821</v>
+        <v>495.7616669884912</v>
       </c>
       <c r="D30" t="n">
-        <v>3728.039900817374</v>
+        <v>400.6713781350445</v>
       </c>
       <c r="E30" t="n">
-        <v>3633.919486144328</v>
+        <v>306.5509634619982</v>
       </c>
       <c r="F30" t="n">
-        <v>3550.53564776049</v>
+        <v>223.1671250781598</v>
       </c>
       <c r="G30" t="n">
-        <v>3465.662352515609</v>
+        <v>138.2938298332795</v>
       </c>
       <c r="H30" t="n">
-        <v>3428.869557632859</v>
+        <v>101.5010349505296</v>
       </c>
       <c r="I30" t="n">
-        <v>3472.203567469004</v>
+        <v>144.8350447866747</v>
       </c>
       <c r="J30" t="n">
-        <v>3844.153016299036</v>
+        <v>516.7844936167066</v>
       </c>
       <c r="K30" t="n">
-        <v>3925.151995329455</v>
+        <v>597.7834726471252</v>
       </c>
       <c r="L30" t="n">
-        <v>4034.065118530717</v>
+        <v>706.6965958483876</v>
       </c>
       <c r="M30" t="n">
-        <v>4161.161596206445</v>
+        <v>833.7930735241156</v>
       </c>
       <c r="N30" t="n">
-        <v>4291.621939458877</v>
+        <v>964.2534167765477</v>
       </c>
       <c r="O30" t="n">
-        <v>4410.967666037987</v>
+        <v>1083.599143355658</v>
       </c>
       <c r="P30" t="n">
-        <v>4506.753133322839</v>
+        <v>1179.38461064051</v>
       </c>
       <c r="Q30" t="n">
-        <v>4926.735162300797</v>
+        <v>1599.366639618469</v>
       </c>
       <c r="R30" t="n">
-        <v>5075.05174752648</v>
+        <v>1747.68322484415</v>
       </c>
       <c r="S30" t="n">
-        <v>5021.102668135578</v>
+        <v>1693.734145453248</v>
       </c>
       <c r="T30" t="n">
-        <v>4892.986915410618</v>
+        <v>1565.618392728288</v>
       </c>
       <c r="U30" t="n">
-        <v>4716.684039100648</v>
+        <v>1389.315516418318</v>
       </c>
       <c r="V30" t="n">
-        <v>4517.566521162647</v>
+        <v>1190.197998480317</v>
       </c>
       <c r="W30" t="n">
-        <v>4332.243766895841</v>
+        <v>1004.875244213511</v>
       </c>
       <c r="X30" t="n">
-        <v>4177.376331134721</v>
+        <v>850.0078084523914</v>
       </c>
       <c r="Y30" t="n">
-        <v>4050.890551913942</v>
+        <v>723.5220292316121</v>
       </c>
     </row>
     <row r="31">
@@ -6630,16 +6630,16 @@
         <v>1022.160745053769</v>
       </c>
       <c r="M31" t="n">
-        <v>1547.565038300634</v>
+        <v>1475.872161465694</v>
       </c>
       <c r="N31" t="n">
-        <v>2054.176827131779</v>
+        <v>1982.48395029684</v>
       </c>
       <c r="O31" t="n">
-        <v>2533.286474459598</v>
+        <v>2461.593597624658</v>
       </c>
       <c r="P31" t="n">
-        <v>2931.654897652315</v>
+        <v>2859.962020817376</v>
       </c>
       <c r="Q31" t="n">
         <v>3063.368682157002</v>
@@ -6700,28 +6700,28 @@
         <v>137.235728699834</v>
       </c>
       <c r="J32" t="n">
-        <v>216.8053542376539</v>
+        <v>652.0600416905719</v>
       </c>
       <c r="K32" t="n">
-        <v>1170.409888579449</v>
+        <v>1605.664576032366</v>
       </c>
       <c r="L32" t="n">
-        <v>2393.415287690636</v>
+        <v>2746.285411110133</v>
       </c>
       <c r="M32" t="n">
-        <v>2558.033087778622</v>
+        <v>2910.903211198119</v>
       </c>
       <c r="N32" t="n">
-        <v>2725.314575974644</v>
+        <v>3078.18469939414</v>
       </c>
       <c r="O32" t="n">
-        <v>3863.45340830392</v>
+        <v>3236.14386515311</v>
       </c>
       <c r="P32" t="n">
-        <v>4826.577776598137</v>
+        <v>4199.268233447328</v>
       </c>
       <c r="Q32" t="n">
-        <v>5016.161154260716</v>
+        <v>4847.00708950766</v>
       </c>
       <c r="R32" t="n">
         <v>5075.05174752648</v>
@@ -6776,31 +6776,31 @@
         <v>101.5010349505296</v>
       </c>
       <c r="I33" t="n">
-        <v>118.7713716262171</v>
+        <v>144.8350447866747</v>
       </c>
       <c r="J33" t="n">
-        <v>449.1703138264571</v>
+        <v>516.7844936167066</v>
       </c>
       <c r="K33" t="n">
-        <v>530.1692928568757</v>
+        <v>953.7354533946116</v>
       </c>
       <c r="L33" t="n">
-        <v>639.0824160581381</v>
+        <v>1062.648576595874</v>
       </c>
       <c r="M33" t="n">
-        <v>766.1788937338662</v>
+        <v>1189.745054271602</v>
       </c>
       <c r="N33" t="n">
-        <v>896.6392369862983</v>
+        <v>1320.205397524034</v>
       </c>
       <c r="O33" t="n">
-        <v>1015.984963565409</v>
+        <v>1439.551124103145</v>
       </c>
       <c r="P33" t="n">
-        <v>1111.77043085026</v>
+        <v>1535.336591387996</v>
       </c>
       <c r="Q33" t="n">
-        <v>1716.539417712808</v>
+        <v>1599.366639618469</v>
       </c>
       <c r="R33" t="n">
         <v>1747.68322484415</v>
@@ -6867,16 +6867,16 @@
         <v>1022.160745053769</v>
       </c>
       <c r="M34" t="n">
-        <v>1547.565038300634</v>
+        <v>1475.872161465694</v>
       </c>
       <c r="N34" t="n">
-        <v>2054.17682713178</v>
+        <v>1982.48395029684</v>
       </c>
       <c r="O34" t="n">
-        <v>2533.286474459598</v>
+        <v>2461.593597624658</v>
       </c>
       <c r="P34" t="n">
-        <v>2931.654897652316</v>
+        <v>2859.962020817376</v>
       </c>
       <c r="Q34" t="n">
         <v>3063.368682157002</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1253.694940773274</v>
+        <v>2077.69285878293</v>
       </c>
       <c r="C35" t="n">
-        <v>1253.694940773274</v>
+        <v>1639.550385966353</v>
       </c>
       <c r="D35" t="n">
-        <v>1253.694940773274</v>
+        <v>1616.415870272512</v>
       </c>
       <c r="E35" t="n">
         <v>1182.641125430807</v>
@@ -6937,28 +6937,28 @@
         <v>110.7331187870245</v>
       </c>
       <c r="J35" t="n">
-        <v>625.5574317777624</v>
+        <v>190.3027443248444</v>
       </c>
       <c r="K35" t="n">
-        <v>1308.228341063763</v>
+        <v>506.0417654443392</v>
       </c>
       <c r="L35" t="n">
-        <v>1456.173773922091</v>
+        <v>1434.147275286126</v>
       </c>
       <c r="M35" t="n">
-        <v>1620.791574010078</v>
+        <v>1598.765075374112</v>
       </c>
       <c r="N35" t="n">
-        <v>1788.073062206099</v>
+        <v>2526.870585215899</v>
       </c>
       <c r="O35" t="n">
-        <v>1946.032227965069</v>
+        <v>3454.976095057685</v>
       </c>
       <c r="P35" t="n">
-        <v>2874.137737806856</v>
+        <v>3589.790588518507</v>
       </c>
       <c r="Q35" t="n">
-        <v>3521.876593867186</v>
+        <v>3691.030658620243</v>
       </c>
       <c r="R35" t="n">
         <v>3749.921251886007</v>
@@ -6976,13 +6976,13 @@
         <v>2912.278552968184</v>
       </c>
       <c r="W35" t="n">
-        <v>2507.423098379218</v>
+        <v>2912.278552968184</v>
       </c>
       <c r="X35" t="n">
-        <v>2088.280634958528</v>
+        <v>2912.278552968184</v>
       </c>
       <c r="Y35" t="n">
-        <v>1679.994511258182</v>
+        <v>2503.992429267837</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>74.99842503772014</v>
       </c>
       <c r="I36" t="n">
-        <v>92.26876171340763</v>
+        <v>118.3324348738652</v>
       </c>
       <c r="J36" t="n">
-        <v>422.6677039136478</v>
+        <v>490.2818837038972</v>
       </c>
       <c r="K36" t="n">
-        <v>503.6666829440665</v>
+        <v>571.2808627343159</v>
       </c>
       <c r="L36" t="n">
-        <v>612.5798061453287</v>
+        <v>680.1939859355782</v>
       </c>
       <c r="M36" t="n">
-        <v>739.6762838210569</v>
+        <v>807.2904636113062</v>
       </c>
       <c r="N36" t="n">
-        <v>870.1366270734891</v>
+        <v>937.7508068637383</v>
       </c>
       <c r="O36" t="n">
-        <v>989.4823536525997</v>
+        <v>1057.096533442849</v>
       </c>
       <c r="P36" t="n">
-        <v>1085.267820937451</v>
+        <v>1152.8820007277</v>
       </c>
       <c r="Q36" t="n">
-        <v>1690.036807799999</v>
+        <v>1572.864029705659</v>
       </c>
       <c r="R36" t="n">
         <v>1721.180614931341</v>
@@ -7095,25 +7095,25 @@
         <v>74.99842503772014</v>
       </c>
       <c r="J37" t="n">
-        <v>119.6169014945314</v>
+        <v>191.3097783294708</v>
       </c>
       <c r="K37" t="n">
-        <v>443.233620005983</v>
+        <v>514.9264968409224</v>
       </c>
       <c r="L37" t="n">
-        <v>923.9652583060198</v>
+        <v>995.6581351409592</v>
       </c>
       <c r="M37" t="n">
-        <v>1449.369551552885</v>
+        <v>1521.062428387824</v>
       </c>
       <c r="N37" t="n">
-        <v>1955.98134038403</v>
+        <v>2027.674217218969</v>
       </c>
       <c r="O37" t="n">
-        <v>2435.090987711849</v>
+        <v>2506.783864546788</v>
       </c>
       <c r="P37" t="n">
-        <v>2833.459410904567</v>
+        <v>2905.152287739505</v>
       </c>
       <c r="Q37" t="n">
         <v>3036.866072244192</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2211.134147612295</v>
+        <v>1191.840242186982</v>
       </c>
       <c r="C38" t="n">
-        <v>1772.991674795718</v>
+        <v>754.7736958400151</v>
       </c>
       <c r="D38" t="n">
-        <v>1337.081889970163</v>
+        <v>754.7736958400151</v>
       </c>
       <c r="E38" t="n">
-        <v>903.3071451284577</v>
+        <v>754.7736958400151</v>
       </c>
       <c r="F38" t="n">
-        <v>475.4397155376654</v>
+        <v>754.7736958400151</v>
       </c>
       <c r="G38" t="n">
-        <v>74.99842503772014</v>
+        <v>354.3324053400697</v>
       </c>
       <c r="H38" t="n">
         <v>74.99842503772014</v>
@@ -7174,52 +7174,52 @@
         <v>110.7331187870245</v>
       </c>
       <c r="J38" t="n">
-        <v>393.4461573897387</v>
+        <v>625.5574317777624</v>
       </c>
       <c r="K38" t="n">
-        <v>512.7003997733552</v>
+        <v>1553.662941619549</v>
       </c>
       <c r="L38" t="n">
-        <v>1440.805909615142</v>
+        <v>2249.464790303056</v>
       </c>
       <c r="M38" t="n">
-        <v>2368.911419456928</v>
+        <v>2414.082590391043</v>
       </c>
       <c r="N38" t="n">
-        <v>3297.016929298715</v>
+        <v>2581.364078587064</v>
       </c>
       <c r="O38" t="n">
-        <v>3454.976095057685</v>
+        <v>2739.323244346033</v>
       </c>
       <c r="P38" t="n">
-        <v>3589.790588518507</v>
+        <v>2874.137737806856</v>
       </c>
       <c r="Q38" t="n">
-        <v>3691.030658620243</v>
+        <v>3521.876593867186</v>
       </c>
       <c r="R38" t="n">
         <v>3749.921251886007</v>
       </c>
       <c r="S38" t="n">
-        <v>3749.921251886007</v>
+        <v>3688.066553299715</v>
       </c>
       <c r="T38" t="n">
-        <v>3749.921251886007</v>
+        <v>3472.186583860906</v>
       </c>
       <c r="U38" t="n">
-        <v>3749.921251886007</v>
+        <v>3213.040804448066</v>
       </c>
       <c r="V38" t="n">
-        <v>3443.418189322298</v>
+        <v>2850.423854381892</v>
       </c>
       <c r="W38" t="n">
-        <v>3038.562734733331</v>
+        <v>2445.568399792925</v>
       </c>
       <c r="X38" t="n">
-        <v>2619.420271312641</v>
+        <v>2026.425936372236</v>
       </c>
       <c r="Y38" t="n">
-        <v>2211.134147612295</v>
+        <v>1618.13981267189</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>118.3324348738652</v>
       </c>
       <c r="J39" t="n">
-        <v>305.4949258193082</v>
+        <v>490.2818837038972</v>
       </c>
       <c r="K39" t="n">
-        <v>386.4939048497268</v>
+        <v>927.2328434818023</v>
       </c>
       <c r="L39" t="n">
-        <v>495.4070280509891</v>
+        <v>1036.145966683065</v>
       </c>
       <c r="M39" t="n">
-        <v>622.5035057267172</v>
+        <v>1163.242444358793</v>
       </c>
       <c r="N39" t="n">
-        <v>752.9638489791494</v>
+        <v>1293.702787611225</v>
       </c>
       <c r="O39" t="n">
-        <v>872.30957555826</v>
+        <v>1413.048514190336</v>
       </c>
       <c r="P39" t="n">
-        <v>968.0950428431113</v>
+        <v>1508.833981475187</v>
       </c>
       <c r="Q39" t="n">
         <v>1572.864029705659</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2091.337639691097</v>
+        <v>1191.840242186982</v>
       </c>
       <c r="C41" t="n">
-        <v>1653.19516687452</v>
+        <v>1191.840242186982</v>
       </c>
       <c r="D41" t="n">
-        <v>1217.285382048964</v>
+        <v>1191.840242186982</v>
       </c>
       <c r="E41" t="n">
-        <v>783.5106372072596</v>
+        <v>1182.641125430807</v>
       </c>
       <c r="F41" t="n">
-        <v>355.6432076164674</v>
+        <v>754.7736958400151</v>
       </c>
       <c r="G41" t="n">
-        <v>74.99842503772014</v>
+        <v>354.3324053400697</v>
       </c>
       <c r="H41" t="n">
         <v>74.99842503772014</v>
@@ -7411,52 +7411,52 @@
         <v>110.7331187870245</v>
       </c>
       <c r="J41" t="n">
-        <v>190.3027443248445</v>
+        <v>625.5574317777624</v>
       </c>
       <c r="K41" t="n">
-        <v>309.556986708461</v>
+        <v>1553.662941619549</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.662496550248</v>
+        <v>2249.464790303056</v>
       </c>
       <c r="M41" t="n">
-        <v>2165.768006392034</v>
+        <v>2414.082590391043</v>
       </c>
       <c r="N41" t="n">
-        <v>3093.873516233821</v>
+        <v>2581.364078587064</v>
       </c>
       <c r="O41" t="n">
-        <v>3454.976095057685</v>
+        <v>2739.323244346033</v>
       </c>
       <c r="P41" t="n">
-        <v>3589.790588518507</v>
+        <v>2874.137737806856</v>
       </c>
       <c r="Q41" t="n">
-        <v>3691.030658620243</v>
+        <v>3521.876593867186</v>
       </c>
       <c r="R41" t="n">
         <v>3749.921251886007</v>
       </c>
       <c r="S41" t="n">
-        <v>3749.921251886007</v>
+        <v>3688.066553299715</v>
       </c>
       <c r="T41" t="n">
-        <v>3749.921251886007</v>
+        <v>3472.186583860906</v>
       </c>
       <c r="U41" t="n">
-        <v>3749.921251886007</v>
+        <v>3213.040804448066</v>
       </c>
       <c r="V41" t="n">
-        <v>3749.921251886007</v>
+        <v>2850.423854381892</v>
       </c>
       <c r="W41" t="n">
-        <v>3345.06579729704</v>
+        <v>2445.568399792925</v>
       </c>
       <c r="X41" t="n">
-        <v>2925.923333876351</v>
+        <v>2026.425936372236</v>
       </c>
       <c r="Y41" t="n">
-        <v>2517.637210176004</v>
+        <v>1618.13981267189</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>118.3324348738652</v>
       </c>
       <c r="J42" t="n">
-        <v>165.7235587376849</v>
+        <v>490.2818837038972</v>
       </c>
       <c r="K42" t="n">
-        <v>246.7225377681035</v>
+        <v>571.2808627343159</v>
       </c>
       <c r="L42" t="n">
-        <v>355.6356609693658</v>
+        <v>680.1939859355782</v>
       </c>
       <c r="M42" t="n">
-        <v>1280.415222453132</v>
+        <v>807.2904636113062</v>
       </c>
       <c r="N42" t="n">
-        <v>1410.875565705565</v>
+        <v>937.7508068637383</v>
       </c>
       <c r="O42" t="n">
-        <v>1530.221292284675</v>
+        <v>1057.096533442849</v>
       </c>
       <c r="P42" t="n">
-        <v>1626.006759569527</v>
+        <v>1152.8820007277</v>
       </c>
       <c r="Q42" t="n">
-        <v>1690.036807799999</v>
+        <v>1572.864029705659</v>
       </c>
       <c r="R42" t="n">
         <v>1721.180614931341</v>
@@ -7578,16 +7578,16 @@
         <v>995.6581351409592</v>
       </c>
       <c r="M43" t="n">
-        <v>1521.062428387824</v>
+        <v>1449.369551552885</v>
       </c>
       <c r="N43" t="n">
-        <v>2027.674217218969</v>
+        <v>1955.98134038403</v>
       </c>
       <c r="O43" t="n">
-        <v>2506.783864546788</v>
+        <v>2435.090987711849</v>
       </c>
       <c r="P43" t="n">
-        <v>2905.152287739505</v>
+        <v>2833.459410904567</v>
       </c>
       <c r="Q43" t="n">
         <v>3036.866072244192</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2485.978982483276</v>
+        <v>1870.128485020511</v>
       </c>
       <c r="C44" t="n">
-        <v>2047.8365096667</v>
+        <v>1431.986012203934</v>
       </c>
       <c r="D44" t="n">
-        <v>1616.415870272512</v>
+        <v>1337.081889970163</v>
       </c>
       <c r="E44" t="n">
-        <v>1182.641125430807</v>
+        <v>903.3071451284577</v>
       </c>
       <c r="F44" t="n">
-        <v>754.7736958400151</v>
+        <v>475.4397155376654</v>
       </c>
       <c r="G44" t="n">
-        <v>354.3324053400697</v>
+        <v>74.99842503772014</v>
       </c>
       <c r="H44" t="n">
         <v>74.99842503772014</v>
@@ -7657,16 +7657,16 @@
         <v>892.7571070197071</v>
       </c>
       <c r="M44" t="n">
-        <v>1820.862616861494</v>
+        <v>1057.374907107693</v>
       </c>
       <c r="N44" t="n">
-        <v>1988.144105057515</v>
+        <v>1224.656395303715</v>
       </c>
       <c r="O44" t="n">
-        <v>2146.103270816484</v>
+        <v>1946.032227965069</v>
       </c>
       <c r="P44" t="n">
-        <v>3074.208780658271</v>
+        <v>2874.137737806856</v>
       </c>
       <c r="Q44" t="n">
         <v>3521.876593867186</v>
@@ -7675,25 +7675,25 @@
         <v>3749.921251886007</v>
       </c>
       <c r="S44" t="n">
-        <v>3749.921251886007</v>
+        <v>3688.066553299715</v>
       </c>
       <c r="T44" t="n">
-        <v>3534.041282447197</v>
+        <v>3472.186583860906</v>
       </c>
       <c r="U44" t="n">
-        <v>3274.895503034358</v>
+        <v>3472.186583860906</v>
       </c>
       <c r="V44" t="n">
-        <v>2912.278552968184</v>
+        <v>3109.569633794732</v>
       </c>
       <c r="W44" t="n">
-        <v>2912.278552968184</v>
+        <v>2704.714179205766</v>
       </c>
       <c r="X44" t="n">
-        <v>2912.278552968184</v>
+        <v>2704.714179205766</v>
       </c>
       <c r="Y44" t="n">
-        <v>2912.278552968184</v>
+        <v>2296.428055505419</v>
       </c>
     </row>
     <row r="45">
@@ -7736,10 +7736,10 @@
         <v>680.1939859355782</v>
       </c>
       <c r="M45" t="n">
-        <v>807.2904636113063</v>
+        <v>807.2904636113062</v>
       </c>
       <c r="N45" t="n">
-        <v>937.7508068637385</v>
+        <v>937.7508068637383</v>
       </c>
       <c r="O45" t="n">
         <v>1057.096533442849</v>
@@ -7806,13 +7806,13 @@
         <v>74.99842503772014</v>
       </c>
       <c r="J46" t="n">
-        <v>119.6169014945314</v>
+        <v>191.3097783294708</v>
       </c>
       <c r="K46" t="n">
-        <v>443.233620005983</v>
+        <v>514.9264968409224</v>
       </c>
       <c r="L46" t="n">
-        <v>923.9652583060198</v>
+        <v>995.6581351409592</v>
       </c>
       <c r="M46" t="n">
         <v>1449.369551552885</v>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8063,10 +8063,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8142,19 +8142,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8221,22 +8221,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8297,13 +8297,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,10 +8692,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>54.13027553998472</v>
+        <v>635.1196507397008</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>15.03439334265749</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>596.023768542374</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>359.5474553004913</v>
+        <v>359.5474553004915</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8850,7 +8850,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>205.1167451880769</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>97.47464447413404</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,25 +8929,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>26.26786328514845</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>589.2978752807413</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>586.6072812322209</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>30.75181867316815</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>619.4022254091901</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9093,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>391.708071056539</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>351.4912852432744</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,19 +9172,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>589.2978752807414</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>586.6072812322213</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>30.75181867316815</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>619.4022254091901</v>
       </c>
       <c r="Q17" t="n">
-        <v>465.9190627325402</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>359.5474553004913</v>
+        <v>359.5474553004915</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15.03718013106095</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>205.1167451880769</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>6.146059050613474</v>
       </c>
       <c r="K20" t="n">
-        <v>16.85137597499556</v>
+        <v>635.1196507397008</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>589.2978752807413</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>596.023768542374</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>619.4022254091904</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>359.5474553004914</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>359.5474553004915</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.03718013106143</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9567,7 +9567,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>391.708071056539</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9643,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>12.62195520114369</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>12.62195520114324</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>15.03718013106104</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>97.47464447413404</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9880,16 +9880,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1002.702426484281</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>12.62195520114369</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9953,10 +9953,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>141.1831990723466</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>359.5474553004913</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>15.03718013106104</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10041,7 +10041,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>391.708071056539</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10117,19 +10117,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>12.62195520114369</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>753.4599098989652</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>359.5474553004915</v>
+        <v>359.5474553004913</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10278,7 +10278,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>391.708071056539</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.47464447413438</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>1002.702426484281</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>89.23566420286988</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>285.8664831681014</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>359.5474553004913</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>391.708071056539</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.47464447413404</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>569.107744345843</v>
+        <v>198.4694734705841</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>788.0404818014733</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>768.5091127735002</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>777.9256000836531</v>
       </c>
       <c r="P35" t="n">
-        <v>801.3040569504694</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>285.8664831681016</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>359.5474553004915</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>15.03718013106101</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>97.47464447413449</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>205.1953667322164</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>817.02148228098</v>
       </c>
       <c r="L38" t="n">
-        <v>788.0404818014733</v>
+        <v>553.3903190153326</v>
       </c>
       <c r="M38" t="n">
-        <v>771.1997068220205</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>768.5091127735004</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>141.1831990723468</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>359.5474553004914</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>817.02148228098</v>
       </c>
       <c r="L41" t="n">
-        <v>788.0404818014733</v>
+        <v>553.3903190153326</v>
       </c>
       <c r="M41" t="n">
-        <v>771.1997068220205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>768.5091127735</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>205.1953667322168</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>805.7404886949885</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>359.5474553004915</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>391.708071056539</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.47464447413449</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11305,19 +11305,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>771.1997068220205</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>569.1077443458428</v>
       </c>
       <c r="P44" t="n">
-        <v>801.3040569504697</v>
+        <v>801.3040569504694</v>
       </c>
       <c r="Q44" t="n">
-        <v>349.9270132395745</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>359.5474553004913</v>
+        <v>359.5474553004915</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>15.03718013106101</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11463,7 +11463,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>391.708071056539</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.4368775949458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>276.5406404993261</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>204.6845916195034</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V11" t="n">
-        <v>280.6291695751283</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>213.5447758762964</v>
+        <v>396.4368775949458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>276.5406404993261</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>61.23615160042885</v>
+        <v>13.74527712688951</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.7211697444214</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>159.8054990194123</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>276.5406404993261</v>
+        <v>26.18853754042928</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.7211697444214</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.4368775949458</v>
       </c>
       <c r="H20" t="n">
         <v>276.5406404993261</v>
@@ -24028,16 +24028,16 @@
         <v>256.5543216187114</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>74.37140590638325</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>379.4383677876121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>408.6475164403973</v>
       </c>
       <c r="E35" t="n">
-        <v>359.0937202042456</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.065167204913848</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>276.5406404993261</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.7211697444214</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5543216187114</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>55.55274862743971</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>420.3298718046749</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>118.5985428419861</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>276.5406404993261</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>213.7211697444214</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5543216187114</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>4.444253977054132</v>
+        <v>337.5956059658657</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>276.5406404993261</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>466256.471282827</v>
+        <v>466256.4712828269</v>
       </c>
     </row>
     <row r="8">
@@ -26343,7 +26343,7 @@
         <v>361899.4409260257</v>
       </c>
       <c r="L2" t="n">
-        <v>361899.4409260256</v>
+        <v>361899.4409260257</v>
       </c>
       <c r="M2" t="n">
         <v>292821.9173888799</v>
@@ -26429,13 +26429,13 @@
         <v>60887.10330693719</v>
       </c>
       <c r="F4" t="n">
-        <v>60887.1033069372</v>
+        <v>60887.10330693719</v>
       </c>
       <c r="G4" t="n">
-        <v>60887.10330693721</v>
+        <v>60887.10330693719</v>
       </c>
       <c r="H4" t="n">
-        <v>60887.10330693721</v>
+        <v>60887.10330693719</v>
       </c>
       <c r="I4" t="n">
         <v>101566.5860936622</v>
@@ -26453,13 +26453,13 @@
         <v>75306.23145170623</v>
       </c>
       <c r="N4" t="n">
+        <v>75306.23145170623</v>
+      </c>
+      <c r="O4" t="n">
         <v>75306.23145170622</v>
       </c>
-      <c r="O4" t="n">
-        <v>75306.23145170623</v>
-      </c>
       <c r="P4" t="n">
-        <v>75306.23145170623</v>
+        <v>75306.2314517062</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70206.20709417792</v>
+        <v>-70206.20709417798</v>
       </c>
       <c r="C6" t="n">
         <v>71985.09356553189</v>
       </c>
       <c r="D6" t="n">
-        <v>71985.09356553201</v>
+        <v>71985.09356553204</v>
       </c>
       <c r="E6" t="n">
-        <v>-145232.331663291</v>
+        <v>-145628.6533439994</v>
       </c>
       <c r="F6" t="n">
-        <v>142931.1009376306</v>
+        <v>142534.7792569222</v>
       </c>
       <c r="G6" t="n">
-        <v>142931.1009376307</v>
+        <v>142534.7792569222</v>
       </c>
       <c r="H6" t="n">
-        <v>142931.1009376307</v>
+        <v>142534.7792569222</v>
       </c>
       <c r="I6" t="n">
-        <v>41590.33347264869</v>
+        <v>41590.33347264864</v>
       </c>
       <c r="J6" t="n">
-        <v>67042.39170574953</v>
+        <v>67042.3917057495</v>
       </c>
       <c r="K6" t="n">
         <v>178056.8570507397</v>
       </c>
       <c r="L6" t="n">
-        <v>178056.8570507396</v>
+        <v>178056.8570507397</v>
       </c>
       <c r="M6" t="n">
-        <v>155381.671689285</v>
+        <v>155125.8290095178</v>
       </c>
       <c r="N6" t="n">
-        <v>155381.6716892851</v>
+        <v>155125.8290095178</v>
       </c>
       <c r="O6" t="n">
-        <v>155381.6716892851</v>
+        <v>155125.8290095178</v>
       </c>
       <c r="P6" t="n">
-        <v>155381.671689285</v>
+        <v>155125.8290095178</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="F3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="G3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="H3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="I3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="J3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="K3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="L3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="M3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="N3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="O3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="P3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>513.1844554513973</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>106.3832346317399</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27441,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>196.5432550408247</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>95.43037761998215</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>150.0830022581258</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>73.13130200746645</v>
+        <v>73.13130200746656</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>73.92098976676661</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>56.52996980412249</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>36.8659361506073</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27918,7 +27918,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>80.57858259414064</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>105.0414389630131</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>46.76923523602616</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H11" t="n">
         <v>9.698212511889819</v>
@@ -31761,7 +31761,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J11" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K11" t="n">
         <v>120.4588306905217</v>
@@ -31770,7 +31770,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M11" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N11" t="n">
         <v>168.9712001980013</v>
@@ -31779,16 +31779,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P11" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q11" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R11" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S11" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T11" t="n">
         <v>4.145385111270372</v>
@@ -31834,7 +31834,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H12" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I12" t="n">
         <v>17.44478452089645</v>
@@ -31843,7 +31843,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K12" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L12" t="n">
         <v>110.0132557588508</v>
@@ -31858,22 +31858,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P12" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R12" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S12" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T12" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31922,7 +31922,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K13" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L13" t="n">
         <v>63.15328942633914</v>
@@ -31931,25 +31931,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N13" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O13" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P13" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q13" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R13" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S13" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T13" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U13" t="n">
         <v>0.02316985059056104</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H14" t="n">
         <v>9.698212511889819</v>
@@ -31998,7 +31998,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J14" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K14" t="n">
         <v>120.4588306905217</v>
@@ -32007,7 +32007,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M14" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N14" t="n">
         <v>168.9712001980013</v>
@@ -32016,16 +32016,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P14" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q14" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R14" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S14" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T14" t="n">
         <v>4.145385111270372</v>
@@ -32071,7 +32071,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H15" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I15" t="n">
         <v>17.44478452089645</v>
@@ -32080,7 +32080,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K15" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L15" t="n">
         <v>110.0132557588508</v>
@@ -32095,22 +32095,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P15" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q15" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R15" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S15" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T15" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32159,7 +32159,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K16" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L16" t="n">
         <v>63.15328942633914</v>
@@ -32168,25 +32168,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N16" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O16" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P16" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q16" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R16" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S16" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T16" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U16" t="n">
         <v>0.02316985059056104</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H17" t="n">
         <v>9.698212511889819</v>
@@ -32235,7 +32235,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J17" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K17" t="n">
         <v>120.4588306905217</v>
@@ -32244,7 +32244,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M17" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N17" t="n">
         <v>168.9712001980013</v>
@@ -32253,16 +32253,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P17" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q17" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R17" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S17" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T17" t="n">
         <v>4.145385111270372</v>
@@ -32308,7 +32308,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H18" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I18" t="n">
         <v>17.44478452089645</v>
@@ -32317,7 +32317,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K18" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L18" t="n">
         <v>110.0132557588508</v>
@@ -32332,22 +32332,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P18" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q18" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R18" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S18" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T18" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32396,7 +32396,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K19" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L19" t="n">
         <v>63.15328942633914</v>
@@ -32405,25 +32405,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N19" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O19" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P19" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q19" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R19" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S19" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T19" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U19" t="n">
         <v>0.02316985059056104</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H20" t="n">
         <v>9.698212511889819</v>
@@ -32472,7 +32472,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J20" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K20" t="n">
         <v>120.4588306905217</v>
@@ -32481,7 +32481,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M20" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N20" t="n">
         <v>168.9712001980013</v>
@@ -32490,16 +32490,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P20" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q20" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R20" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S20" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T20" t="n">
         <v>4.145385111270372</v>
@@ -32545,7 +32545,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H21" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I21" t="n">
         <v>17.44478452089645</v>
@@ -32554,7 +32554,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K21" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L21" t="n">
         <v>110.0132557588508</v>
@@ -32569,22 +32569,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P21" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q21" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R21" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S21" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T21" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32633,7 +32633,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K22" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L22" t="n">
         <v>63.15328942633914</v>
@@ -32642,25 +32642,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N22" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O22" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P22" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q22" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R22" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S22" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T22" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U22" t="n">
         <v>0.02316985059056104</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H23" t="n">
         <v>9.698212511889819</v>
@@ -32709,7 +32709,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J23" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K23" t="n">
         <v>120.4588306905217</v>
@@ -32718,7 +32718,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M23" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N23" t="n">
         <v>168.9712001980013</v>
@@ -32727,16 +32727,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P23" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q23" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R23" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S23" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T23" t="n">
         <v>4.145385111270372</v>
@@ -32782,7 +32782,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H24" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I24" t="n">
         <v>17.44478452089645</v>
@@ -32791,7 +32791,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K24" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L24" t="n">
         <v>110.0132557588508</v>
@@ -32806,22 +32806,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P24" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q24" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R24" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S24" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T24" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32870,7 +32870,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K25" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L25" t="n">
         <v>63.15328942633914</v>
@@ -32879,25 +32879,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N25" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O25" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P25" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q25" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R25" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S25" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T25" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U25" t="n">
         <v>0.02316985059056104</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H26" t="n">
         <v>9.698212511889819</v>
@@ -32946,7 +32946,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J26" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K26" t="n">
         <v>120.4588306905217</v>
@@ -32955,7 +32955,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M26" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N26" t="n">
         <v>168.9712001980013</v>
@@ -32964,16 +32964,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P26" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q26" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R26" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S26" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T26" t="n">
         <v>4.145385111270372</v>
@@ -33019,7 +33019,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H27" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I27" t="n">
         <v>17.44478452089645</v>
@@ -33028,7 +33028,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K27" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L27" t="n">
         <v>110.0132557588508</v>
@@ -33043,22 +33043,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P27" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q27" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R27" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S27" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T27" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33107,7 +33107,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K28" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L28" t="n">
         <v>63.15328942633914</v>
@@ -33116,25 +33116,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N28" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O28" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P28" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q28" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R28" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S28" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T28" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U28" t="n">
         <v>0.02316985059056104</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H29" t="n">
         <v>9.698212511889819</v>
@@ -33183,7 +33183,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J29" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K29" t="n">
         <v>120.4588306905217</v>
@@ -33192,7 +33192,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M29" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N29" t="n">
         <v>168.9712001980013</v>
@@ -33201,16 +33201,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P29" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q29" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R29" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S29" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T29" t="n">
         <v>4.145385111270372</v>
@@ -33256,7 +33256,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H30" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I30" t="n">
         <v>17.44478452089645</v>
@@ -33265,7 +33265,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K30" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L30" t="n">
         <v>110.0132557588508</v>
@@ -33280,22 +33280,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P30" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q30" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R30" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S30" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T30" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33344,7 +33344,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K31" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L31" t="n">
         <v>63.15328942633914</v>
@@ -33353,25 +33353,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N31" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O31" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P31" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q31" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R31" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S31" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T31" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U31" t="n">
         <v>0.02316985059056104</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H32" t="n">
         <v>9.698212511889819</v>
@@ -33420,7 +33420,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J32" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K32" t="n">
         <v>120.4588306905217</v>
@@ -33429,7 +33429,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M32" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N32" t="n">
         <v>168.9712001980013</v>
@@ -33438,16 +33438,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P32" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q32" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R32" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S32" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T32" t="n">
         <v>4.145385111270372</v>
@@ -33493,7 +33493,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H33" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I33" t="n">
         <v>17.44478452089645</v>
@@ -33502,7 +33502,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K33" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L33" t="n">
         <v>110.0132557588508</v>
@@ -33517,22 +33517,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P33" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q33" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R33" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S33" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T33" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33581,7 +33581,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K34" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L34" t="n">
         <v>63.15328942633914</v>
@@ -33590,25 +33590,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N34" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O34" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P34" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q34" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R34" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S34" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T34" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U34" t="n">
         <v>0.02316985059056104</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H35" t="n">
         <v>9.698212511889819</v>
@@ -33657,7 +33657,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J35" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K35" t="n">
         <v>120.4588306905217</v>
@@ -33666,7 +33666,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M35" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N35" t="n">
         <v>168.9712001980013</v>
@@ -33675,16 +33675,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P35" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q35" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R35" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S35" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T35" t="n">
         <v>4.145385111270372</v>
@@ -33730,7 +33730,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H36" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I36" t="n">
         <v>17.44478452089645</v>
@@ -33739,7 +33739,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K36" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L36" t="n">
         <v>110.0132557588508</v>
@@ -33754,22 +33754,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P36" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q36" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R36" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S36" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T36" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33818,7 +33818,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K37" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L37" t="n">
         <v>63.15328942633914</v>
@@ -33827,25 +33827,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N37" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O37" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P37" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q37" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R37" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S37" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T37" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U37" t="n">
         <v>0.02316985059056104</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H38" t="n">
         <v>9.698212511889819</v>
@@ -33894,7 +33894,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J38" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K38" t="n">
         <v>120.4588306905217</v>
@@ -33903,7 +33903,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M38" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N38" t="n">
         <v>168.9712001980013</v>
@@ -33912,16 +33912,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P38" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q38" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R38" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S38" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T38" t="n">
         <v>4.145385111270372</v>
@@ -33967,7 +33967,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H39" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I39" t="n">
         <v>17.44478452089645</v>
@@ -33976,7 +33976,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K39" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L39" t="n">
         <v>110.0132557588508</v>
@@ -33991,22 +33991,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P39" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q39" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R39" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S39" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T39" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34055,7 +34055,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K40" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L40" t="n">
         <v>63.15328942633914</v>
@@ -34064,25 +34064,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N40" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O40" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P40" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q40" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R40" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S40" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T40" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U40" t="n">
         <v>0.02316985059056104</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H41" t="n">
         <v>9.698212511889819</v>
@@ -34131,7 +34131,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J41" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K41" t="n">
         <v>120.4588306905217</v>
@@ -34140,7 +34140,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M41" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N41" t="n">
         <v>168.9712001980013</v>
@@ -34149,16 +34149,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P41" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q41" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R41" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S41" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T41" t="n">
         <v>4.145385111270372</v>
@@ -34204,7 +34204,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H42" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I42" t="n">
         <v>17.44478452089645</v>
@@ -34213,7 +34213,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K42" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L42" t="n">
         <v>110.0132557588508</v>
@@ -34228,22 +34228,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P42" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q42" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R42" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S42" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T42" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34292,7 +34292,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K43" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L43" t="n">
         <v>63.15328942633914</v>
@@ -34301,25 +34301,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N43" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O43" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P43" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q43" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R43" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S43" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T43" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U43" t="n">
         <v>0.02316985059056104</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H44" t="n">
         <v>9.698212511889819</v>
@@ -34368,7 +34368,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J44" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K44" t="n">
         <v>120.4588306905217</v>
@@ -34377,7 +34377,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M44" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N44" t="n">
         <v>168.9712001980013</v>
@@ -34386,16 +34386,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P44" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q44" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R44" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S44" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T44" t="n">
         <v>4.145385111270372</v>
@@ -34441,7 +34441,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H45" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I45" t="n">
         <v>17.44478452089645</v>
@@ -34450,7 +34450,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K45" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L45" t="n">
         <v>110.0132557588508</v>
@@ -34465,22 +34465,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P45" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q45" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R45" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S45" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T45" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34529,7 +34529,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K46" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L46" t="n">
         <v>63.15328942633914</v>
@@ -34538,25 +34538,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N46" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O46" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P46" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q46" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R46" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S46" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T46" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U46" t="n">
         <v>0.02316985059056104</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34783,10 +34783,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34862,19 +34862,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34941,22 +34941,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35017,13 +35017,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>520.024558576503</v>
       </c>
       <c r="K11" t="n">
-        <v>174.5891062305064</v>
+        <v>755.5784814302225</v>
       </c>
       <c r="L11" t="n">
-        <v>149.4398311700284</v>
+        <v>164.4742245126859</v>
       </c>
       <c r="M11" t="n">
         <v>166.2806061494812</v>
@@ -35424,7 +35424,7 @@
         <v>168.9712001980013</v>
       </c>
       <c r="O11" t="n">
-        <v>755.5784814302224</v>
+        <v>159.5547128878484</v>
       </c>
       <c r="P11" t="n">
         <v>136.1762560210323</v>
@@ -35433,7 +35433,7 @@
         <v>654.2816727882132</v>
       </c>
       <c r="R11" t="n">
-        <v>230.3481394129494</v>
+        <v>230.3481394129499</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>110.0132557588508</v>
       </c>
       <c r="M12" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N12" t="n">
-        <v>131.7781244974062</v>
+        <v>131.7781244974061</v>
       </c>
       <c r="O12" t="n">
         <v>120.5512389687988</v>
@@ -35509,7 +35509,7 @@
         <v>96.75299725742548</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2242716949079</v>
+        <v>424.2242716949081</v>
       </c>
       <c r="R12" t="n">
         <v>149.8147325511934</v>
@@ -35570,13 +35570,13 @@
         <v>117.4862154462128</v>
       </c>
       <c r="K13" t="n">
-        <v>254.4685269459718</v>
+        <v>326.8855742539915</v>
       </c>
       <c r="L13" t="n">
         <v>485.5875134343806</v>
       </c>
       <c r="M13" t="n">
-        <v>530.7114073200659</v>
+        <v>530.711407320066</v>
       </c>
       <c r="N13" t="n">
         <v>511.7290796274197</v>
@@ -35588,7 +35588,7 @@
         <v>402.392346659311</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.46127408043</v>
+        <v>133.0442267724102</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>520.024558576503</v>
       </c>
       <c r="K14" t="n">
-        <v>146.7266939756702</v>
+        <v>120.4588306905217</v>
       </c>
       <c r="L14" t="n">
-        <v>149.4398311700285</v>
+        <v>149.4398311700284</v>
       </c>
       <c r="M14" t="n">
-        <v>755.5784814302225</v>
+        <v>166.2806061494812</v>
       </c>
       <c r="N14" t="n">
+        <v>168.9712001980013</v>
+      </c>
+      <c r="O14" t="n">
+        <v>190.3065315610165</v>
+      </c>
+      <c r="P14" t="n">
         <v>755.5784814302224</v>
       </c>
-      <c r="O14" t="n">
-        <v>159.5547128878484</v>
-      </c>
-      <c r="P14" t="n">
-        <v>136.1762560210323</v>
-      </c>
       <c r="Q14" t="n">
-        <v>102.2626970724609</v>
+        <v>654.2816727882132</v>
       </c>
       <c r="R14" t="n">
-        <v>230.3481394129494</v>
+        <v>230.3481394129499</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35813,16 +35813,16 @@
         <v>485.5875134343806</v>
       </c>
       <c r="M16" t="n">
-        <v>530.711407320066</v>
+        <v>458.2943600120461</v>
       </c>
       <c r="N16" t="n">
         <v>511.7290796274197</v>
       </c>
       <c r="O16" t="n">
-        <v>411.5320914069484</v>
+        <v>483.9491387149683</v>
       </c>
       <c r="P16" t="n">
-        <v>402.3923466593105</v>
+        <v>402.392346659311</v>
       </c>
       <c r="Q16" t="n">
         <v>205.46127408043</v>
@@ -35883,7 +35883,7 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J17" t="n">
-        <v>80.37335912911109</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K17" t="n">
         <v>120.4588306905217</v>
@@ -35892,22 +35892,22 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M17" t="n">
-        <v>755.5784814302226</v>
+        <v>166.2806061494812</v>
       </c>
       <c r="N17" t="n">
-        <v>755.5784814302226</v>
+        <v>168.9712001980013</v>
       </c>
       <c r="O17" t="n">
-        <v>159.5547128878484</v>
+        <v>190.3065315610165</v>
       </c>
       <c r="P17" t="n">
-        <v>136.1762560210323</v>
+        <v>755.5784814302224</v>
       </c>
       <c r="Q17" t="n">
-        <v>568.1817598050011</v>
+        <v>654.2816727882132</v>
       </c>
       <c r="R17" t="n">
-        <v>230.3481394129494</v>
+        <v>230.3481394129499</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>110.0132557588508</v>
       </c>
       <c r="M18" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N18" t="n">
-        <v>131.7781244974062</v>
+        <v>131.7781244974061</v>
       </c>
       <c r="O18" t="n">
         <v>120.5512389687988</v>
@@ -35983,7 +35983,7 @@
         <v>96.75299725742548</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2242716949079</v>
+        <v>424.2242716949081</v>
       </c>
       <c r="R18" t="n">
         <v>149.8147325511934</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.06916813819311</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K19" t="n">
-        <v>326.8855742539915</v>
+        <v>254.4685269459718</v>
       </c>
       <c r="L19" t="n">
         <v>485.5875134343806</v>
@@ -36120,31 +36120,31 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J20" t="n">
-        <v>520.024558576503</v>
+        <v>86.51941817972457</v>
       </c>
       <c r="K20" t="n">
-        <v>137.3102066655173</v>
+        <v>755.5784814302225</v>
       </c>
       <c r="L20" t="n">
-        <v>149.4398311700285</v>
+        <v>149.4398311700284</v>
       </c>
       <c r="M20" t="n">
-        <v>755.5784814302225</v>
+        <v>166.2806061494812</v>
       </c>
       <c r="N20" t="n">
         <v>168.9712001980013</v>
       </c>
       <c r="O20" t="n">
-        <v>755.5784814302224</v>
+        <v>159.5547128878484</v>
       </c>
       <c r="P20" t="n">
-        <v>136.1762560210323</v>
+        <v>755.5784814302226</v>
       </c>
       <c r="Q20" t="n">
-        <v>102.2626970724609</v>
+        <v>654.2816727882132</v>
       </c>
       <c r="R20" t="n">
-        <v>230.3481394129494</v>
+        <v>59.48544774319544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>81.81715053577636</v>
       </c>
       <c r="L21" t="n">
-        <v>469.5607110593422</v>
+        <v>110.0132557588508</v>
       </c>
       <c r="M21" t="n">
         <v>128.3802804805334</v>
       </c>
       <c r="N21" t="n">
-        <v>131.7781244974062</v>
+        <v>131.7781244974061</v>
       </c>
       <c r="O21" t="n">
         <v>120.5512389687988</v>
@@ -36220,7 +36220,7 @@
         <v>96.75299725742548</v>
       </c>
       <c r="Q21" t="n">
-        <v>64.67681639441662</v>
+        <v>424.2242716949081</v>
       </c>
       <c r="R21" t="n">
         <v>149.8147325511934</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.06916813819359</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K22" t="n">
         <v>326.8855742539915</v>
@@ -36287,13 +36287,13 @@
         <v>485.5875134343806</v>
       </c>
       <c r="M22" t="n">
-        <v>530.7114073200659</v>
+        <v>458.2943600120461</v>
       </c>
       <c r="N22" t="n">
-        <v>511.7290796274194</v>
+        <v>511.7290796274197</v>
       </c>
       <c r="O22" t="n">
-        <v>483.9491387149681</v>
+        <v>483.9491387149683</v>
       </c>
       <c r="P22" t="n">
         <v>402.3923466593105</v>
@@ -36363,22 +36363,22 @@
         <v>963.2369033755499</v>
       </c>
       <c r="L23" t="n">
-        <v>149.4398311700284</v>
+        <v>162.061786371172</v>
       </c>
       <c r="M23" t="n">
         <v>166.2806061494812</v>
       </c>
       <c r="N23" t="n">
-        <v>181.5931553991445</v>
+        <v>168.9712001980013</v>
       </c>
       <c r="O23" t="n">
         <v>1149.635184170986</v>
       </c>
       <c r="P23" t="n">
-        <v>972.8528972668869</v>
+        <v>972.8528972668873</v>
       </c>
       <c r="Q23" t="n">
-        <v>654.2816727882137</v>
+        <v>654.2816727882127</v>
       </c>
       <c r="R23" t="n">
         <v>230.3481394129494</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.06916813819321</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K25" t="n">
         <v>326.8855742539915</v>
       </c>
       <c r="L25" t="n">
-        <v>485.5875134343806</v>
+        <v>485.5875134343808</v>
       </c>
       <c r="M25" t="n">
-        <v>530.7114073200659</v>
+        <v>530.711407320066</v>
       </c>
       <c r="N25" t="n">
         <v>511.7290796274197</v>
@@ -36536,7 +36536,7 @@
         <v>402.392346659311</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.46127408043</v>
+        <v>133.0442267724102</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>963.2369033755499</v>
       </c>
       <c r="L26" t="n">
-        <v>149.4398311700284</v>
+        <v>1152.14225765431</v>
       </c>
       <c r="M26" t="n">
         <v>166.2806061494812</v>
       </c>
       <c r="N26" t="n">
-        <v>181.593155399145</v>
+        <v>168.9712001980015</v>
       </c>
       <c r="O26" t="n">
-        <v>1149.635184170986</v>
+        <v>159.5547128878484</v>
       </c>
       <c r="P26" t="n">
         <v>972.8528972668873</v>
@@ -36673,28 +36673,28 @@
         <v>43.77172710721725</v>
       </c>
       <c r="J27" t="n">
-        <v>47.86982208466631</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K27" t="n">
-        <v>223.0003496081229</v>
+        <v>81.81715053577636</v>
       </c>
       <c r="L27" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M27" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N27" t="n">
         <v>131.7781244974062</v>
       </c>
       <c r="O27" t="n">
-        <v>120.5512389687987</v>
+        <v>120.5512389687988</v>
       </c>
       <c r="P27" t="n">
         <v>96.75299725742548</v>
       </c>
       <c r="Q27" t="n">
-        <v>610.8777645076243</v>
+        <v>424.2242716949079</v>
       </c>
       <c r="R27" t="n">
         <v>149.8147325511934</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.06916813819321</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K28" t="n">
         <v>326.8855742539915</v>
       </c>
       <c r="L28" t="n">
-        <v>485.5875134343806</v>
+        <v>485.5875134343808</v>
       </c>
       <c r="M28" t="n">
-        <v>530.7114073200659</v>
+        <v>458.2943600120461</v>
       </c>
       <c r="N28" t="n">
         <v>511.7290796274197</v>
@@ -36837,19 +36837,19 @@
         <v>963.2369033755499</v>
       </c>
       <c r="L29" t="n">
-        <v>149.4398311700284</v>
+        <v>1235.358989001199</v>
       </c>
       <c r="M29" t="n">
         <v>166.2806061494812</v>
       </c>
       <c r="N29" t="n">
-        <v>181.593155399145</v>
+        <v>168.9712001980015</v>
       </c>
       <c r="O29" t="n">
-        <v>1149.635184170986</v>
+        <v>159.5547128878484</v>
       </c>
       <c r="P29" t="n">
-        <v>972.8528972668873</v>
+        <v>889.6361659199974</v>
       </c>
       <c r="Q29" t="n">
         <v>654.2816727882127</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>43.77172710721743</v>
+        <v>43.77172710721725</v>
       </c>
       <c r="J30" t="n">
         <v>375.7065139697293</v>
@@ -36919,22 +36919,22 @@
         <v>110.0132557588508</v>
       </c>
       <c r="M30" t="n">
-        <v>128.3802804805337</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N30" t="n">
-        <v>131.7781244974058</v>
+        <v>131.7781244974062</v>
       </c>
       <c r="O30" t="n">
-        <v>120.5512389687983</v>
+        <v>120.5512389687988</v>
       </c>
       <c r="P30" t="n">
-        <v>96.7529972574257</v>
+        <v>96.75299725742548</v>
       </c>
       <c r="Q30" t="n">
-        <v>424.2242716949077</v>
+        <v>424.2242716949079</v>
       </c>
       <c r="R30" t="n">
-        <v>149.8147325511936</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36998,10 +36998,10 @@
         <v>485.5875134343808</v>
       </c>
       <c r="M31" t="n">
-        <v>530.7114073200657</v>
+        <v>458.2943600120461</v>
       </c>
       <c r="N31" t="n">
-        <v>511.7290796274194</v>
+        <v>511.7290796274197</v>
       </c>
       <c r="O31" t="n">
         <v>483.9491387149683</v>
@@ -37010,7 +37010,7 @@
         <v>402.392346659311</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.0442267724106</v>
+        <v>205.46127408043</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J32" t="n">
-        <v>80.37335912911109</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K32" t="n">
-        <v>963.2369033755501</v>
+        <v>963.2369033755499</v>
       </c>
       <c r="L32" t="n">
-        <v>1235.358989001199</v>
+        <v>1152.14225765431</v>
       </c>
       <c r="M32" t="n">
         <v>166.2806061494812</v>
@@ -37083,16 +37083,16 @@
         <v>168.9712001980015</v>
       </c>
       <c r="O32" t="n">
-        <v>1149.635184170986</v>
+        <v>159.5547128878484</v>
       </c>
       <c r="P32" t="n">
-        <v>972.8528972668869</v>
+        <v>972.8528972668873</v>
       </c>
       <c r="Q32" t="n">
-        <v>191.4983612753313</v>
+        <v>654.2816727882127</v>
       </c>
       <c r="R32" t="n">
-        <v>59.48544774319544</v>
+        <v>230.3481394129494</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>17.44478452089645</v>
+        <v>43.77172710721725</v>
       </c>
       <c r="J33" t="n">
-        <v>333.7363052527677</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K33" t="n">
-        <v>81.81715053577636</v>
+        <v>441.3646058362676</v>
       </c>
       <c r="L33" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M33" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N33" t="n">
         <v>131.7781244974062</v>
       </c>
       <c r="O33" t="n">
-        <v>120.5512389687987</v>
+        <v>120.5512389687988</v>
       </c>
       <c r="P33" t="n">
         <v>96.75299725742548</v>
       </c>
       <c r="Q33" t="n">
-        <v>610.8777645076243</v>
+        <v>64.67681639441662</v>
       </c>
       <c r="R33" t="n">
-        <v>31.45839104175934</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>485.5875134343808</v>
       </c>
       <c r="M34" t="n">
-        <v>530.711407320066</v>
+        <v>458.2943600120461</v>
       </c>
       <c r="N34" t="n">
         <v>511.7290796274197</v>
@@ -37247,7 +37247,7 @@
         <v>402.392346659311</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.0442267724102</v>
+        <v>205.46127408043</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J35" t="n">
-        <v>520.024558576503</v>
+        <v>80.37335912911108</v>
       </c>
       <c r="K35" t="n">
-        <v>689.5665750363646</v>
+        <v>318.9283041611058</v>
       </c>
       <c r="L35" t="n">
-        <v>149.4398311700284</v>
+        <v>937.4803129715017</v>
       </c>
       <c r="M35" t="n">
         <v>166.2806061494812</v>
       </c>
       <c r="N35" t="n">
-        <v>168.9712001980013</v>
+        <v>937.4803129715017</v>
       </c>
       <c r="O35" t="n">
-        <v>159.5547128878484</v>
+        <v>937.4803129715015</v>
       </c>
       <c r="P35" t="n">
-        <v>937.4803129715017</v>
+        <v>136.1762560210323</v>
       </c>
       <c r="Q35" t="n">
-        <v>654.2816727882132</v>
+        <v>102.2626970724609</v>
       </c>
       <c r="R35" t="n">
-        <v>230.3481394129499</v>
+        <v>59.48544774319544</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>17.44478452089645</v>
+        <v>43.77172710721726</v>
       </c>
       <c r="J36" t="n">
-        <v>333.7363052527679</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K36" t="n">
         <v>81.81715053577642</v>
@@ -37393,22 +37393,22 @@
         <v>110.0132557588508</v>
       </c>
       <c r="M36" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N36" t="n">
-        <v>131.7781244974062</v>
+        <v>131.7781244974061</v>
       </c>
       <c r="O36" t="n">
-        <v>120.5512389687987</v>
+        <v>120.5512389687988</v>
       </c>
       <c r="P36" t="n">
         <v>96.75299725742548</v>
       </c>
       <c r="Q36" t="n">
-        <v>610.8777645076243</v>
+        <v>424.2242716949081</v>
       </c>
       <c r="R36" t="n">
-        <v>31.45839104175934</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.06916813819318</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K37" t="n">
         <v>326.8855742539915</v>
@@ -37475,7 +37475,7 @@
         <v>530.7114073200659</v>
       </c>
       <c r="N37" t="n">
-        <v>511.7290796274197</v>
+        <v>511.7290796274194</v>
       </c>
       <c r="O37" t="n">
         <v>483.9491387149683</v>
@@ -37484,7 +37484,7 @@
         <v>402.3923466593105</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.46127408043</v>
+        <v>133.0442267724106</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J38" t="n">
-        <v>285.5687258613275</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K38" t="n">
-        <v>120.4588306905217</v>
+        <v>937.4803129715017</v>
       </c>
       <c r="L38" t="n">
-        <v>937.4803129715017</v>
+        <v>702.8301501853609</v>
       </c>
       <c r="M38" t="n">
-        <v>937.4803129715017</v>
+        <v>166.2806061494812</v>
       </c>
       <c r="N38" t="n">
-        <v>937.4803129715019</v>
+        <v>168.9712001980015</v>
       </c>
       <c r="O38" t="n">
-        <v>159.5547128878484</v>
+        <v>159.5547128878479</v>
       </c>
       <c r="P38" t="n">
         <v>136.1762560210323</v>
       </c>
       <c r="Q38" t="n">
-        <v>102.2626970724609</v>
+        <v>654.2816727882132</v>
       </c>
       <c r="R38" t="n">
-        <v>59.48544774319544</v>
+        <v>230.3481394129499</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>43.77172710721726</v>
       </c>
       <c r="J39" t="n">
-        <v>189.0530211570131</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K39" t="n">
-        <v>81.81715053577636</v>
+        <v>441.3646058362678</v>
       </c>
       <c r="L39" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M39" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N39" t="n">
         <v>131.7781244974062</v>
       </c>
       <c r="O39" t="n">
-        <v>120.5512389687987</v>
+        <v>120.5512389687988</v>
       </c>
       <c r="P39" t="n">
         <v>96.75299725742548</v>
       </c>
       <c r="Q39" t="n">
-        <v>610.8777645076243</v>
+        <v>64.67681639441662</v>
       </c>
       <c r="R39" t="n">
         <v>149.8147325511934</v>
@@ -37779,31 +37779,31 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J41" t="n">
-        <v>80.37335912911111</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K41" t="n">
-        <v>120.4588306905217</v>
+        <v>937.4803129715017</v>
       </c>
       <c r="L41" t="n">
-        <v>937.4803129715017</v>
+        <v>702.8301501853609</v>
       </c>
       <c r="M41" t="n">
-        <v>937.4803129715017</v>
+        <v>166.2806061494812</v>
       </c>
       <c r="N41" t="n">
-        <v>937.4803129715015</v>
+        <v>168.9712001980015</v>
       </c>
       <c r="O41" t="n">
-        <v>364.7500796200652</v>
+        <v>159.5547128878479</v>
       </c>
       <c r="P41" t="n">
         <v>136.1762560210323</v>
       </c>
       <c r="Q41" t="n">
-        <v>102.2626970724609</v>
+        <v>654.2816727882132</v>
       </c>
       <c r="R41" t="n">
-        <v>59.48544774319544</v>
+        <v>230.3481394129499</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>43.77172710721726</v>
       </c>
       <c r="J42" t="n">
-        <v>47.8698220846663</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K42" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577642</v>
       </c>
       <c r="L42" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M42" t="n">
-        <v>934.1207691755219</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N42" t="n">
-        <v>131.7781244974062</v>
+        <v>131.7781244974061</v>
       </c>
       <c r="O42" t="n">
         <v>120.5512389687988</v>
@@ -37879,10 +37879,10 @@
         <v>96.75299725742548</v>
       </c>
       <c r="Q42" t="n">
-        <v>64.67681639441662</v>
+        <v>424.2242716949081</v>
       </c>
       <c r="R42" t="n">
-        <v>31.45839104175934</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>117.4862154462129</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K43" t="n">
         <v>326.8855742539915</v>
@@ -37946,10 +37946,10 @@
         <v>485.5875134343806</v>
       </c>
       <c r="M43" t="n">
-        <v>530.7114073200659</v>
+        <v>458.2943600120462</v>
       </c>
       <c r="N43" t="n">
-        <v>511.7290796274194</v>
+        <v>511.7290796274197</v>
       </c>
       <c r="O43" t="n">
         <v>483.9491387149683</v>
@@ -37958,7 +37958,7 @@
         <v>402.3923466593105</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.0442267724106</v>
+        <v>205.46127408043</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,19 +38025,19 @@
         <v>149.4398311700285</v>
       </c>
       <c r="M44" t="n">
-        <v>937.4803129715017</v>
+        <v>166.2806061494812</v>
       </c>
       <c r="N44" t="n">
         <v>168.9712001980013</v>
       </c>
       <c r="O44" t="n">
-        <v>159.5547128878482</v>
+        <v>728.6624572336912</v>
       </c>
       <c r="P44" t="n">
-        <v>937.4803129715019</v>
+        <v>937.4803129715017</v>
       </c>
       <c r="Q44" t="n">
-        <v>452.1897103120355</v>
+        <v>654.2816727882132</v>
       </c>
       <c r="R44" t="n">
         <v>230.3481394129499</v>
@@ -38104,10 +38104,10 @@
         <v>110.0132557588508</v>
       </c>
       <c r="M45" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N45" t="n">
-        <v>131.7781244974062</v>
+        <v>131.7781244974061</v>
       </c>
       <c r="O45" t="n">
         <v>120.5512389687988</v>
@@ -38116,7 +38116,7 @@
         <v>96.75299725742548</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2242716949079</v>
+        <v>424.2242716949081</v>
       </c>
       <c r="R45" t="n">
         <v>149.8147325511934</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.06916813819318</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K46" t="n">
         <v>326.8855742539915</v>
@@ -38183,7 +38183,7 @@
         <v>485.5875134343806</v>
       </c>
       <c r="M46" t="n">
-        <v>530.7114073200659</v>
+        <v>458.2943600120462</v>
       </c>
       <c r="N46" t="n">
         <v>511.7290796274197</v>
